--- a/Documents/아이템 시트 0929.xlsx
+++ b/Documents/아이템 시트 0929.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w3m_e\OneDrive\문서\포폴 제출용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D098BEC7-5E29-4FDC-AD46-766535938FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC397321-3EEE-422A-85F9-91916E90A2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -1468,14 +1468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>축복 : 공격 시 입힌 데미지의 15%만큼의 내구력을 가진 방어막이 형성됨. 이전에 생성된 방어막이 있다면 내구력이 추가. 방어막은 방어력이 적용되지 않음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산탄 : 사정거리 +1, (모험가의 최대 사정거리-공격대상과의 거리)*15%만큼의 추가 공격력.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>50~100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1900,6 +1892,14 @@
   </si>
   <si>
     <t>위기 대처 : 체력 10% 이하일 때 방어력 75 증가.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>축복(Bless) : 적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄(Buckshot) : 사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.(모험가의 최대 사정거리-공격대상과의 거리)*0.1만큼의 추가 공격력.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3229,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4539,7 +4539,7 @@
         <v>85</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>342</v>
+        <v>451</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>295</v>
@@ -4575,7 +4575,7 @@
         <v>85</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>341</v>
+        <v>450</v>
       </c>
       <c r="K43" s="12" t="s">
         <v>303</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="44" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C44" s="4">
         <v>86</v>
@@ -4642,8 +4642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5879,7 +5879,7 @@
         <v>85</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>197</v>
@@ -5990,7 +5990,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D5" s="32">
         <v>650</v>
@@ -6013,7 +6013,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D6" s="1">
         <v>800</v>
@@ -6036,7 +6036,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D7" s="1">
         <v>1200</v>
@@ -6059,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D8" s="1">
         <v>1600</v>
@@ -6082,7 +6082,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D9" s="1">
         <v>1800</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="H9" s="34" t="s">
         <v>45</v>
@@ -6105,7 +6105,7 @@
         <v>310</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D10" s="32">
         <v>1500</v>
@@ -6117,7 +6117,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H10" s="31" t="s">
         <v>58</v>
@@ -6128,7 +6128,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D11" s="1">
         <v>7000</v>
@@ -6140,7 +6140,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H11" s="31" t="s">
         <v>57</v>
@@ -6151,7 +6151,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D12" s="1">
         <v>2500</v>
@@ -6163,7 +6163,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>61</v>
@@ -6174,7 +6174,7 @@
         <v>69</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D13" s="32">
         <v>2000</v>
@@ -6186,7 +6186,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H13" s="31" t="s">
         <v>71</v>
@@ -6194,10 +6194,10 @@
     </row>
     <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D14" s="1">
         <v>4500</v>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>72</v>
@@ -6220,19 +6220,19 @@
         <v>73</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D15" s="1">
         <v>3800</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>332</v>
@@ -6243,7 +6243,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D16" s="1">
         <v>6000</v>
@@ -6255,7 +6255,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H16" s="31" t="s">
         <v>76</v>
@@ -6266,19 +6266,19 @@
         <v>173</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D17" s="1">
         <v>5000</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F17">
         <v>30</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>304</v>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D18" s="36">
         <v>1400</v>
@@ -6302,7 +6302,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H18" s="34" t="s">
         <v>313</v>
@@ -6313,7 +6313,7 @@
         <v>305</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D19" s="1">
         <v>2500</v>
@@ -6325,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>306</v>
@@ -6336,19 +6336,19 @@
         <v>308</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D20" s="1">
         <v>2600</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F20">
         <v>40</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>309</v>
@@ -6359,7 +6359,7 @@
         <v>311</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D21" s="1">
         <v>3000</v>
@@ -6371,7 +6371,7 @@
         <v>30</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>58</v>
@@ -6382,7 +6382,7 @@
         <v>312</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D22" s="1">
         <v>3000</v>
@@ -6394,7 +6394,7 @@
         <v>30</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>313</v>
@@ -6405,19 +6405,19 @@
         <v>314</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D23" s="1">
         <v>1400</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>330</v>
@@ -6428,19 +6428,19 @@
         <v>315</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D24" s="1">
         <v>2500</v>
       </c>
       <c r="E24" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F24">
         <v>40</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>330</v>
@@ -6451,19 +6451,19 @@
         <v>316</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D25" s="1">
         <v>5000</v>
       </c>
       <c r="E25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>331</v>
@@ -6474,13 +6474,13 @@
         <v>317</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D26" s="1">
         <v>2100</v>
       </c>
       <c r="E26" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -6497,13 +6497,13 @@
         <v>319</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D27" s="1">
         <v>2350</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F27">
         <v>35</v>
@@ -6520,7 +6520,7 @@
         <v>324</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D28" s="1">
         <v>3500</v>
@@ -6543,7 +6543,7 @@
         <v>329</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D29" s="1">
         <v>2200</v>
@@ -6563,10 +6563,10 @@
     </row>
     <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D30" s="1">
         <v>1000</v>
@@ -6578,7 +6578,7 @@
         <v>10</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>337</v>
@@ -6589,7 +6589,7 @@
         <v>338</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D31" s="1">
         <v>2800</v>
@@ -6609,278 +6609,278 @@
     </row>
     <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D32" s="1">
         <v>5500</v>
       </c>
       <c r="E32" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D33" s="1">
         <v>6000</v>
       </c>
       <c r="E33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D34" s="32">
         <v>1350</v>
       </c>
       <c r="E34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D35" s="32">
         <v>2500</v>
       </c>
       <c r="E35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D36" s="32">
         <v>5000</v>
       </c>
       <c r="E36" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>420</v>
       </c>
       <c r="D37" s="32">
         <v>3400</v>
       </c>
       <c r="E37" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D38" s="32">
         <v>1750</v>
       </c>
       <c r="E38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F38">
         <v>25</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D39" s="32">
         <v>3000</v>
       </c>
       <c r="E39" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F39">
         <v>45</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>403</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="D40" s="32">
         <v>4600</v>
       </c>
       <c r="E40" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F40">
         <v>60</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H40" s="31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D41" s="32">
         <v>1500</v>
       </c>
       <c r="E41" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D42" s="32">
         <v>2300</v>
       </c>
       <c r="E42" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="33" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D43" s="32">
         <v>3300</v>
       </c>
       <c r="E43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>

--- a/Documents/아이템 시트 0929.xlsx
+++ b/Documents/아이템 시트 0929.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC397321-3EEE-422A-85F9-91916E90A2F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB3040-252D-4A90-936E-76422D805BAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="451">
   <si>
     <t>10~20</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -556,22 +556,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무거움 : 공격 속도 -10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>무거움 : 공격 속도 -10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>거치적거림 : 치명타 확률 -10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가벼움 : 공격 속도 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여기저기 덧댄 판금 갑옷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -593,10 +577,6 @@
   </si>
   <si>
     <t>멋짐 : 전투 시작시 자신을 공격대상으로 한 몬스터들을 4초간 스턴시킴.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 가벼움 : 공격 속도 +15%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -676,10 +656,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>강화 외골격 : 공격력 +10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">증기와 마법으로 구동되는 갑옷. 마법 회로가 착용자의 의도를 읽어, 증기를 동력원으로 갑옷을 움직인다. 최신기술의 집약으로 화제가 되었지만 잔고장이 잦다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -692,10 +668,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>화염 오라 : 주위 1칸에 있는 몬스터에게 1초마다 모험가 공격력의 8% 데미지를 입힘.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>재생의 로브</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -728,10 +700,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>움직이기 편함 : 치명타 확률 +12%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>용사냥꾼의 판금 갑옷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -744,10 +712,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>거치적거림 : 치명타 확률 -15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진은 갑옷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -792,18 +756,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>움직이기 편함 : 치명타 확률 +15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>처형인의 장갑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>착용자가 치명타 공격을 하면 50% 공격력으로 1회 더 공격함.(평타 취급으로 치명타도 따로 계산)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>체력. 안정성과 사냥 도는 속도 증가.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -816,18 +772,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가벼움 : 공격 속도 +15%, 움직이기 편함 : 치명타 확률 +15%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>낮은 방어력, 공격력 대폭 보너스.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자기 방어 : 방어력의 20%만큼 추가 공격력.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>드래곤 스케일 아머</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -836,10 +784,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>재생 : 매 초마다 잃은 체력의 1.5% 회복.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>환영술사의 크리스탈 로브</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -849,10 +793,6 @@
   </si>
   <si>
     <t>암살자 조직의 두령이 사용했다는 갑옷. 착용자에게 암살 대상의 이름을 속삭인다고 한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">무거움 : 공격 속도 -10%, 상흔 : 받은 피해(방어력 적용 X) 100당 공격 속도 0.05%증가. 최대 20%까지 증가. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -980,18 +920,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>쌍수무기 : 한번에 2번 공격하지만 매 공격의 데미지는 절반이 됨.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정전기 발생 : 매 공격 전에 +4데미지의 추가 공격을 함. 추가 공격은 치명타가 발생하지 않음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>휩쓸기 : 공격 범위 이내에 공격 대상 이외의 적이 있다면 35%데미지로 공격.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>35~45</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1025,10 +953,6 @@
   </si>
   <si>
     <t>드워프제 양날도끼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘 흡수 : 주변 1칸 이내의 몬스터의 공격력의 10%를 흡수(몬스터의 공격력 -10%, 흡수한 만큼 자신의 공격력 +)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1288,18 +1212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>몰입 : 전투 시작 후 3초마다 공격 속도 +5%. 전투가 끝나면 사라지며 최대 5중첩.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>균열 : 적을 공격할 때마다 방어력 -6% 디버프를 남김. 디버프는 중첩 가능하며 5중첩까지 가능.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오버 부스트 : 적의 체력이 30% 이하일 때 공격력 +25%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이실리엔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1404,18 +1316,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가시갑옷 : 데미지를 받으면 15%를 공격자에게 되돌려 줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>짐을 들어주는 짐꾼. 태엽으로 움직이기에 주기적으로 급료를 줄 필요가 없어서 모험가들이 애용한다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전격 : 치명타 발생 시 대상을 2초간 스턴시키고 60의 추가데미지를 줌. 재사용 대기시간 16초.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>무기에 빙결마법을 부여하는 스크롤. 무기로 적을 공격하면 얼어붙는다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1548,89 +1452,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>숨돌리기 : 비전투 상태이며 체력이 30 이상 닳았을 때 체력 30 회복. 3번 사용 가능하며, 성소에 들릴 때마다 재충전.</t>
-  </si>
-  <si>
-    <t>흡혈 : 공격 시 입힌 데미지의 12%만큼 체력 회복.</t>
-  </si>
-  <si>
-    <t>처형 : 공격 대상의 체력이 20% 이하일 때 공격력의 200%데미지 공격을 가함.</t>
-  </si>
-  <si>
-    <t>가속 : 공격 속도 +10%</t>
-  </si>
-  <si>
-    <t>검기 : 사정거리 +1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신의 가호 : 모험가에게서 1칸 이내에 있는 몬스터에게 초당 12데미지, 방어력 -15</t>
-  </si>
-  <si>
-    <t>급소 포착 : 치명타 확률 +10%</t>
-  </si>
-  <si>
-    <t>가속 II : 공격 속도 +20%</t>
-  </si>
-  <si>
-    <t>불꽃 : 매 공격마다 12의 추가 데미지.</t>
-  </si>
-  <si>
-    <t>용암 : 매 공격마다 26의 추가 데미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>포르투나의 축복 : 회피율 +10%</t>
-  </si>
-  <si>
     <t>일렉트릭 브레스 : 공격시 5% 확률로 2칸 내의 적 2개체에게 300데미지를 주는 공격을 함.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파이어볼 : 공격시 7% 확률로 2*2범위에 80데미지를 주는 공격을 함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>빙결 : 공격시 4% 확률로 공격 대상을 1.5초간 스턴. 쿨타임 12초.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>급소 포착 II : 치명타 확률 +20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중급 보호 마법 : 체력 +150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하급 보호 마법 : 체력 +60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급 보호 마법 : 체력 +12%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명력 전환 : 체력이 최대체력이 80%까지만 회복됨. 줄어든 체력의 15%(최대 체력의 3%)만큼 추가 공격력을 얻음.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일섬 : 치명타 공격력 +50%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반작용 : 방어력 +35%, 공격을 당할 때 방어력의 20%만큼의 데미지를 공격자에게 줌.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>짐꾼 : 이동속도 +25, 최대 체력 +4%. 착용 후 2분 이내에는 해제불가.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>데미지 흡수 : 공격을 당할 때마다 체력 15 회복</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>무게추</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1659,22 +1492,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>묵직함 : 방어구 관통력 +20%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날카로운 날 : 방어구 관통력 +30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비전 마법으로 만들어진 칼날을 생성하는 장비. 보통 방어구를 관통하기 위해 무기의 위에 덧댄다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이중 관통 : 방어구 관통력 +40%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>버클러</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1691,10 +1512,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>소형 방패 : 방어력 +20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>한손검과 쓸 수 있게 만든 소형 방패. 작고 가벼워서 능동적으로 활용할 수 있다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1711,22 +1528,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>중형 방패 : 방어력 +30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 방패 : 방어력 +40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>60~100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>추가 장갑 : 방어력 +30%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비상 탈출 장치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1855,18 +1660,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>무기 정비 : 방어구 관통력 +15(고정 수치)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>증폭 : 매 공격시 주위 1칸 범위에 15% 데미지의 추가 공격을 가함.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>충격파 생성 : 매 공격시 주위 1칸 범위에 10 데미지 공격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>45~100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1891,7 +1684,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>위기 대처 : 체력 10% 이하일 때 방어력 75 증가.</t>
+    <t>파이어볼 : 공격시 7% 확률로 대상과 주위 1칸에게 80데미지를 주는 공격을 함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 흡수(DamageAbsorb) : 공격을 받을 때마다, 체력을 15 회복합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반발력(RepulsivePower) : 방어력이 35% 증가합니다. 공격을 받을 때마다, 방어력의 20%만큼의 피해를 공격자에게 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버부스트(OverBoost) : 공격대상의 체력이 30% 이하일 때 공격력이 25% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>휩쓸기(Sweep) : 적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍수무기(DualWield) : 공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡혈(LifeSteal) : 적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증폭(Amplify) : 적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적들에게 공격력의 15%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충격파 생성(ShockWave) : 적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염 오라(FlameAura) : 매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 물약(RedPotion) : 매 3초마다, 체력을 1 회복합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생(Rejuvenate) : 매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>균열(Crack) : 적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다. (디버프명 : 균열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰입(Immerse) : 전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가합니다. 공격속도 증가는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신의 가호(DivineProtection) : 매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위기 대처(CrisisManagement) : 체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형(Execution) : 공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분신(MirrorImage) : 적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전격(Thunderbolt) : 적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃(Blaze) : 적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암(Lava) : 적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정전기 발생(StaticElectricity) : 적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 :빠져나간 힘) (버프명 : 흡수한 힘) (몬스터의 공격력 -10%, 흡수한 만큼 자신의 공격력 +)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 방어(SelfDefence) : 방어력의 20%만큼 공격력이 증가합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1899,7 +1784,127 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>산탄(Buckshot) : 사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.(모험가의 최대 사정거리-공격대상과의 거리)*0.1만큼의 추가 공격력.</t>
+    <t>무거움(HeavyWeight) : 공격 속도가 10% 감소합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가벼움(LightWeight) : 공격 속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이기 편함(Comfortable) : 치명타 확률이 12% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸리적거림(Uncomfortable) : 치명타 확률이 10% 감소합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 외골격(PoweredExoskeleton) : 공격력이 10% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 가벼움(VeryLightWeight) : 공격 속도가 15% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 걸리적거림(VeryUncomfortable) : 치명타 확률이 15% 감소합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이기 매우 편함(VeryComfortable) : 치명타 확률이 15% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시갑옷(ThornMail) : 공격을 받을 때마다, 받은 데미지의 15%를 공격자에게 되돌려줍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무거움(HeavyWeight) : 공격 속도가 10% 감소합니다. /상흔(Scar) : 잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 정비(WeaponMaintenance) : 방어구 관통력이 15 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소 포착(CatchVitalPoint) : 치명타 확률이 10% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 장갑(AdditionalArmor) : 방어력이 30% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속(Accelerate) : 공격 속도가 10% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일섬(JustOneSlash) : 치명타 공격력이 50% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검기(SwordAura) : 사정거리가 1 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>급소 포착 II(CatchVitalPoint2) : 치명타 확률이 20% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가속 II(Accelerate2) : 공격 속도가 20% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포르투나의 축복(BlessedByFortuna) : 회피율이 10% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급 보호 마법(LesserPretectionSpell) : 체력이 60 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급 보호 마법(GreaterPretectionSpell) : 체력이 12% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급 보호 마법(StandardPretectionSpell) : 체력이 150 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵직함(HeavyBlow) : 방어구 관통력이 20% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 날(SharpendBlade) : 방어구 관통력이 30% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전 칼날(ArcaneBlade) : 방어구 관통력이 40% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 방패(SmallShield) : 방어력이 20 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중형 방패(MediumShield) : 방어력이 30 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 방패(LargeShield) : 방어력이 40 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄(Buckshot) : 사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다. (모험가의 최대 사정거리-공격대상과의 거리)*15%만큼의 추가 공격력.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 가볍고 편함(VeryLightAndComfortable) :   공격 속도가 15%, 치명타 확률이 15% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 전환(LifeTap) : 최대 체력 -20%. 줄어든 체력의 15%(최대 체력의 3%)만큼 추가 공격력을 얻음.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2010,12 +2015,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2044,7 +2067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2138,9 +2161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -2155,6 +2175,18 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3229,8 +3261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3254,7 +3286,7 @@
     </row>
     <row r="4" spans="1:13" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>39</v>
@@ -3278,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>12</v>
@@ -3290,7 +3322,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -3312,7 +3344,7 @@
         <v>47</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M5" s="17">
         <f>(C5+'[1]일선 모험가'!$E$9)*'[1]일선 모험가'!$F$9*(1+E5)*(1+'[1]일선 모험가'!$G$9+D5)/[1]모험가!$M$9</f>
@@ -3338,7 +3370,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M6" s="17">
         <f>(C6+'[1]일선 모험가'!$E$9)*'[1]일선 모험가'!$F$9*(1+E6)*(1+'[1]일선 모험가'!$G$9+D6)/[1]모험가!$M$9</f>
@@ -3369,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M7" s="17">
         <f>(C7+'[1]일선 모험가'!$E$14)*'[1]일선 모험가'!$F$14*(1+E7)*(1+'[1]일선 모험가'!$G$14+D7)/[1]모험가!$M$14</f>
@@ -3393,13 +3425,13 @@
         <v>5</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>220</v>
+        <v>416</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>37</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M8" s="17">
         <f>(C8+'[1]일선 모험가'!$E$14)*'[1]일선 모험가'!$F$14*(1+E8)*(1+'[1]일선 모험가'!$G$14+D8)/[1]모험가!$M$14</f>
@@ -3430,7 +3462,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M9" s="17">
         <f>(C9+'[1]일선 모험가'!$E$19)*'[1]일선 모험가'!$F$19*(1+E9)*(1+'[1]일선 모험가'!$G$19+D9)/[1]모험가!$M$19</f>
@@ -3464,7 +3496,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M10" s="17">
         <f>(C10+'[1]일선 모험가'!$E$19)*'[1]일선 모험가'!$F$19*(1+E10)*(1+'[1]일선 모험가'!$G$19+D10)/[1]모험가!$M$19</f>
@@ -3473,7 +3505,7 @@
     </row>
     <row r="11" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -3492,10 +3524,10 @@
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M11" s="17">
         <f>(C11+'[1]일선 모험가'!$E$24)*'[1]일선 모험가'!$F$24*(1+E11)*(1+'[1]일선 모험가'!$G$24+D11)/[1]모험가!$M$24</f>
@@ -3504,7 +3536,7 @@
     </row>
     <row r="12" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C12" s="4">
         <v>12</v>
@@ -3525,10 +3557,10 @@
         <v>15</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M12" s="17">
         <f>(C12+'[1]일선 모험가'!$E$24)*'[1]일선 모험가'!$F$24*(1+E12)*(1+'[1]일선 모험가'!$G$24+D12)/[1]모험가!$M$24</f>
@@ -3537,7 +3569,7 @@
     </row>
     <row r="13" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C13" s="4">
         <v>12</v>
@@ -3549,19 +3581,19 @@
         <v>1050</v>
       </c>
       <c r="H13" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="I13">
         <v>20</v>
       </c>
       <c r="J13" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>238</v>
-      </c>
       <c r="L13" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M13" s="17">
         <f>(C13+'[1]일선 모험가'!$E$29)*'[1]일선 모험가'!$F$29*(1+E13)*(1+'[1]일선 모험가'!$G$29+D13)/[1]모험가!$M$29</f>
@@ -3570,7 +3602,7 @@
     </row>
     <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C14" s="4">
         <v>18</v>
@@ -3585,16 +3617,16 @@
         <v>1080</v>
       </c>
       <c r="H14" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="I14">
         <v>20</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M14" s="17">
         <f>(C14+'[1]일선 모험가'!$E$29)*'[1]일선 모험가'!$F$29*(1+E14)*(1+'[1]일선 모험가'!$G$29+D14)/[1]모험가!$M$29</f>
@@ -3603,7 +3635,7 @@
     </row>
     <row r="15" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C15" s="4">
         <v>18</v>
@@ -3615,16 +3647,16 @@
         <v>1230</v>
       </c>
       <c r="H15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I15">
         <v>25</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M15" s="17">
         <f>(C15+'[1]일선 모험가'!$E$34)*'[1]일선 모험가'!$F$34*(1+E15)*(1+'[1]일선 모험가'!$G$34+D15)/[1]모험가!$M$34</f>
@@ -3633,7 +3665,7 @@
     </row>
     <row r="16" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C16" s="4">
         <v>19</v>
@@ -3645,16 +3677,16 @@
         <v>1300</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I16">
         <v>25</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M16" s="17">
         <f>(C16+'[1]일선 모험가'!$E$34)*'[1]일선 모험가'!$F$34*(1+E16)*(1+'[1]일선 모험가'!$G$34+D16)/[1]모험가!$M$34</f>
@@ -3663,7 +3695,7 @@
     </row>
     <row r="17" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C17" s="4">
         <v>23</v>
@@ -3681,16 +3713,16 @@
         <v>1500</v>
       </c>
       <c r="H17" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I17">
         <v>30</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M17" s="17">
         <f>(C17+'[1]일선 모험가'!$E$39)*'[1]일선 모험가'!$F$39*(1+E17)*(1+'[1]일선 모험가'!$G$39+D17)/[1]모험가!$M$39</f>
@@ -3699,7 +3731,7 @@
     </row>
     <row r="18" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
@@ -3714,19 +3746,19 @@
         <v>1600</v>
       </c>
       <c r="H18" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I18">
         <v>30</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>221</v>
+        <v>399</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M18" s="17">
         <f>(C18+'[1]일선 모험가'!$E$39)*'[1]일선 모험가'!$F$39*(1+E18)*(1+'[1]일선 모험가'!$G$39+D18)/[1]모험가!$M$39</f>
@@ -3735,7 +3767,7 @@
     </row>
     <row r="19" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C19" s="4">
         <v>48</v>
@@ -3744,16 +3776,16 @@
         <v>1790</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="I19">
         <v>35</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="M19" s="17">
         <f>(C19+'[1]일선 모험가'!$E$44)*'[1]일선 모험가'!$F$44*(1+E19)*(1+'[1]일선 모험가'!$G$44+D19)/[1]모험가!$M$44</f>
@@ -3762,7 +3794,7 @@
     </row>
     <row r="20" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C20" s="4">
         <v>30</v>
@@ -3777,16 +3809,16 @@
         <v>1820</v>
       </c>
       <c r="H20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="I20">
         <v>35</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M20" s="17">
         <f>(C20+'[1]일선 모험가'!$E$44)*'[1]일선 모험가'!$F$44*(1+E20)*(1+'[1]일선 모험가'!$G$44+D20)/[1]모험가!$M$44</f>
@@ -3795,7 +3827,7 @@
     </row>
     <row r="21" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C21" s="4">
         <v>30</v>
@@ -3810,16 +3842,16 @@
         <v>2000</v>
       </c>
       <c r="H21" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I21">
         <v>40</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M21" s="17">
         <f>(C21+'[1]일선 모험가'!$E$49)*'[1]일선 모험가'!$F$49*(1+E21)*(1+'[1]일선 모험가'!$G$49+D21)/[1]모험가!$M$49</f>
@@ -3828,7 +3860,7 @@
     </row>
     <row r="22" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C22" s="4">
         <v>26</v>
@@ -3840,16 +3872,16 @@
         <v>2100</v>
       </c>
       <c r="H22" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="I22">
         <v>40</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M22" s="17">
         <f>(C22+'[1]일선 모험가'!$E$49)*'[1]일선 모험가'!$F$49*(1+E22)*(1+'[1]일선 모험가'!$G$49+D22)/[1]모험가!$M$49</f>
@@ -3858,7 +3890,7 @@
     </row>
     <row r="23" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C23" s="4">
         <v>32</v>
@@ -3876,16 +3908,16 @@
         <v>2300</v>
       </c>
       <c r="H23" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="I23">
         <v>45</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M23" s="17">
         <f>(C23+'[1]일선 모험가'!$E$54)*'[1]일선 모험가'!$F$54*(1+E23)*(1+'[1]일선 모험가'!$G$54+D23)/[1]모험가!$M$54</f>
@@ -3894,7 +3926,7 @@
     </row>
     <row r="24" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C24" s="4">
         <v>26</v>
@@ -3909,19 +3941,19 @@
         <v>2380</v>
       </c>
       <c r="H24" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="I24">
         <v>45</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>231</v>
+        <v>417</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M24" s="17">
         <f>(C24+'[1]일선 모험가'!$E$54)*'[1]일선 모험가'!$F$54*(1+E24)*(1+'[1]일선 모험가'!$G$54+D24)/[1]모험가!$M$54</f>
@@ -3930,7 +3962,7 @@
     </row>
     <row r="25" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C25" s="4">
         <v>62</v>
@@ -3945,16 +3977,16 @@
         <v>2550</v>
       </c>
       <c r="H25" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I25">
         <v>50</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="M25" s="17">
         <f>(C25+'[1]일선 모험가'!$E$59)*'[1]일선 모험가'!$F$59*(1+E25)*(1+'[1]일선 모험가'!$G$59+D25)/[1]모험가!$M$59</f>
@@ -3963,7 +3995,7 @@
     </row>
     <row r="26" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C26" s="4">
         <v>46</v>
@@ -3978,16 +4010,16 @@
         <v>2600</v>
       </c>
       <c r="H26" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I26">
         <v>50</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M26" s="17">
         <f>(C26+'[1]일선 모험가'!$E$59)*'[1]일선 모험가'!$F$59*(1+E26)*(1+'[1]일선 모험가'!$G$59+D26)/[1]모험가!$M$59</f>
@@ -3996,7 +4028,7 @@
     </row>
     <row r="27" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C27" s="4">
         <v>40</v>
@@ -4011,16 +4043,16 @@
         <v>2800</v>
       </c>
       <c r="H27" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I27" s="18">
         <v>55</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="M27" s="17">
         <f>(C27+'[1]일선 모험가'!$E$64)*'[1]일선 모험가'!$F$64*(1+E27)*(1+'[1]일선 모험가'!$G$64+D27)/[1]모험가!$M$64</f>
@@ -4029,7 +4061,7 @@
     </row>
     <row r="28" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C28" s="4">
         <v>46</v>
@@ -4044,16 +4076,16 @@
         <v>2800</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="I28" s="18">
         <v>55</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M28" s="17">
         <f>(C28+'[1]일선 모험가'!$E$64)*'[1]일선 모험가'!$F$64*(1+E28)*(1+'[1]일선 모험가'!$G$64+D28)/[1]모험가!$M$64</f>
@@ -4062,7 +4094,7 @@
     </row>
     <row r="29" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="C29" s="4">
         <v>50</v>
@@ -4080,16 +4112,16 @@
         <v>3000</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="I29" s="18">
         <v>60</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M29" s="17">
         <f>(C29+'[1]일선 모험가'!$E$69)*'[1]일선 모험가'!$F$69*(1+E29)*(1+'[1]일선 모험가'!$G$69+D29)/[1]모험가!$M$69</f>
@@ -4098,7 +4130,7 @@
     </row>
     <row r="30" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="C30" s="4">
         <v>50</v>
@@ -4113,19 +4145,19 @@
         <v>3100</v>
       </c>
       <c r="H30" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="I30" s="18">
         <v>60</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M30" s="17">
         <f>(C30+'[1]일선 모험가'!$E$69)*'[1]일선 모험가'!$F$69*(1+E30)*(1+'[1]일선 모험가'!$G$69+D30)/[1]모험가!$M$69</f>
@@ -4134,7 +4166,7 @@
     </row>
     <row r="31" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C31" s="4">
         <v>75</v>
@@ -4149,16 +4181,16 @@
         <v>3300</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I31" s="18">
         <v>65</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M31" s="17">
         <f>(C31+'[1]일선 모험가'!$E$74)*'[1]일선 모험가'!$F$74*(1+E31)*(1+'[1]일선 모험가'!$G$74+D31)/[1]모험가!$M$74</f>
@@ -4167,7 +4199,7 @@
     </row>
     <row r="32" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C32" s="4">
         <v>58</v>
@@ -4182,16 +4214,16 @@
         <v>3350</v>
       </c>
       <c r="H32" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I32" s="18">
         <v>65</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M32" s="17">
         <f>(C32+'[1]일선 모험가'!$E$74)*'[1]일선 모험가'!$F$74*(1+E32)*(1+'[1]일선 모험가'!$G$74+D32)/[1]모험가!$M$74</f>
@@ -4200,7 +4232,7 @@
     </row>
     <row r="33" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C33" s="4">
         <v>54</v>
@@ -4215,16 +4247,16 @@
         <v>3550</v>
       </c>
       <c r="H33" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I33" s="18">
         <v>70</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M33" s="17">
         <f>(C33+'[1]일선 모험가'!$E$79)*'[1]일선 모험가'!$F$79*(1+E33)*(1+'[1]일선 모험가'!$G$79+D33)/[1]모험가!$M$79</f>
@@ -4233,7 +4265,7 @@
     </row>
     <row r="34" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C34" s="4">
         <v>56</v>
@@ -4248,16 +4280,16 @@
         <v>3500</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="I34" s="18">
         <v>70</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M34" s="17">
         <f>(C34+'[1]일선 모험가'!$E$79)*'[1]일선 모험가'!$F$79*(1+E34)*(1+'[1]일선 모험가'!$G$79+D34)/[1]모험가!$M$79</f>
@@ -4266,7 +4298,7 @@
     </row>
     <row r="35" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C35" s="4">
         <v>60</v>
@@ -4284,16 +4316,16 @@
         <v>3700</v>
       </c>
       <c r="H35" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="I35" s="18">
         <v>75</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M35" s="17">
         <f>(C35+'[1]일선 모험가'!$E$84)*'[1]일선 모험가'!$F$84*(1+E35)*(1+'[1]일선 모험가'!$G$84+D35)/[1]모험가!$M$84</f>
@@ -4302,7 +4334,7 @@
     </row>
     <row r="36" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C36" s="4">
         <v>62</v>
@@ -4317,19 +4349,19 @@
         <v>3750</v>
       </c>
       <c r="H36" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="I36" s="18">
         <v>75</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>277</v>
+      <c r="J36" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M36" s="17">
         <f>(C36+'[1]일선 모험가'!$E$84)*'[1]일선 모험가'!$F$84*(1+E36)*(1+'[1]일선 모험가'!$G$84+D36)/[1]모험가!$M$84</f>
@@ -4338,7 +4370,7 @@
     </row>
     <row r="37" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C37" s="4">
         <v>90</v>
@@ -4353,16 +4385,16 @@
         <v>3900</v>
       </c>
       <c r="H37" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="I37" s="18">
         <v>80</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M37" s="17">
         <f>(C37+'[1]일선 모험가'!$E$89)*'[1]일선 모험가'!$F$89*(1+E37)*(1+'[1]일선 모험가'!$G$89+D37)/[1]모험가!$M$89</f>
@@ -4371,7 +4403,7 @@
     </row>
     <row r="38" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C38" s="4">
         <v>74</v>
@@ -4389,16 +4421,16 @@
         <v>3950</v>
       </c>
       <c r="H38" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="I38" s="18">
         <v>80</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M38" s="17">
         <f>(C38+'[1]일선 모험가'!$E$89)*'[1]일선 모험가'!$F$89*(1+E38)*(1+'[1]일선 모험가'!$G$89+D38)/[1]모험가!$M$89</f>
@@ -4407,7 +4439,7 @@
     </row>
     <row r="39" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="C39" s="4">
         <v>81</v>
@@ -4422,19 +4454,19 @@
         <v>6000</v>
       </c>
       <c r="H39" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I39" s="18">
         <v>85</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>296</v>
+        <v>408</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="M39" s="17">
         <f>(C39+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E39)*(1+'[1]일선 모험가'!$G$99+D39)/[1]모험가!$M$99</f>
@@ -4443,7 +4475,7 @@
     </row>
     <row r="40" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C40" s="4">
         <v>82</v>
@@ -4458,19 +4490,19 @@
         <v>6000</v>
       </c>
       <c r="H40" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I40" s="18">
         <v>85</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>327</v>
+      <c r="J40" s="39" t="s">
+        <v>413</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M40" s="17">
         <f>(C40+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E40)*(1+'[1]일선 모험가'!$G$99+D40)/[1]모험가!$M$99</f>
@@ -4479,7 +4511,7 @@
     </row>
     <row r="41" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C41" s="4">
         <v>75</v>
@@ -4497,19 +4529,19 @@
         <v>6000</v>
       </c>
       <c r="H41" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I41" s="18">
         <v>85</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>297</v>
+        <v>407</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="M41" s="17">
         <f>(C41+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E41)*(1+'[1]일선 모험가'!$G$99+D41)/[1]모험가!$M$99</f>
@@ -4518,7 +4550,7 @@
     </row>
     <row r="42" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C42" s="4">
         <v>75</v>
@@ -4533,19 +4565,19 @@
         <v>6000</v>
       </c>
       <c r="H42" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I42" s="18">
         <v>85</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>451</v>
+      <c r="J42" s="39" t="s">
+        <v>448</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M42" s="17">
         <f>(C42+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E42)*(1+'[1]일선 모험가'!$G$99+D42)/[1]모험가!$M$99</f>
@@ -4554,7 +4586,7 @@
     </row>
     <row r="43" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C43" s="4">
         <v>110</v>
@@ -4569,19 +4601,19 @@
         <v>6000</v>
       </c>
       <c r="H43" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I43" s="18">
         <v>85</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="M43" s="17">
         <f>(C43+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E43)*(1+'[1]일선 모험가'!$G$99+D43)/[1]모험가!$M$99</f>
@@ -4590,7 +4622,7 @@
     </row>
     <row r="44" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C44" s="4">
         <v>86</v>
@@ -4608,19 +4640,19 @@
         <v>6000</v>
       </c>
       <c r="H44" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="I44" s="18">
         <v>85</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M44" s="17">
         <f>(C44+'[1]일선 모험가'!$E$99)*'[1]일선 모험가'!$F$99*(1+E44)*(1+'[1]일선 모험가'!$G$99+D44)/[1]모험가!$M$99</f>
@@ -4642,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4685,7 +4717,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>12</v>
@@ -4697,10 +4729,10 @@
         <v>10</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="40.049999999999997" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -4755,7 +4787,7 @@
         <v>109</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K6" s="17">
         <f>('[1]일선 모험가'!$C$14+C6)*(1+('[1]일선 모험가'!$D$14+D6)/100)/[1]모험가!$N$14</f>
@@ -4810,10 +4842,10 @@
         <v>10</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K8" s="17">
         <f>('[1]일선 모험가'!$C$19+C8)*(1+('[1]일선 모험가'!$D$19+D8)/100)/[1]모험가!$N$19</f>
@@ -4837,13 +4869,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>68</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K9" s="17">
         <f>('[1]일선 모험가'!$C$19+C9)*(1+('[1]일선 모험가'!$D$19+D9)/100)/[1]모험가!$N$19</f>
@@ -4870,7 +4902,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>116</v>
+        <v>421</v>
       </c>
       <c r="I10" s="12" t="s">
         <v>77</v>
@@ -4996,7 +5028,7 @@
         <v>90</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K14" s="17">
         <f>('[1]일선 모험가'!$C$34+C14)*(1+('[1]일선 모험가'!$D$34+D14)/100)/[1]모험가!$N$34</f>
@@ -5023,13 +5055,13 @@
         <v>25</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>115</v>
+        <v>423</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K15" s="17">
         <f>('[1]일선 모험가'!$C$34+C15)*(1+('[1]일선 모험가'!$D$34+D15)/100)/[1]모험가!$N$34</f>
@@ -5056,7 +5088,7 @@
         <v>30</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>156</v>
+        <v>422</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>106</v>
@@ -5093,7 +5125,7 @@
         <v>103</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K17" s="17">
         <f>('[1]일선 모험가'!$C$39+C17)*(1+('[1]일선 모험가'!$D$39+D17)/100)/[1]모험가!$N$39</f>
@@ -5102,7 +5134,7 @@
     </row>
     <row r="18" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C18" s="4">
         <v>175</v>
@@ -5120,7 +5152,7 @@
         <v>35</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>85</v>
@@ -5179,14 +5211,14 @@
       <c r="G20">
         <v>40</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>122</v>
+      <c r="H20" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>112</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K20" s="17">
         <f>('[1]일선 모험가'!$C$49+C20)*(1+('[1]일선 모험가'!$D$49+D20)/100)/[1]모험가!$N$49</f>
@@ -5195,7 +5227,7 @@
     </row>
     <row r="21" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="4">
         <v>225</v>
@@ -5213,13 +5245,13 @@
         <v>40</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I21" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="J21" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K21" s="17">
         <f>('[1]일선 모험가'!$C$49+C21)*(1+('[1]일선 모험가'!$D$49+D21)/100)/[1]모험가!$N$49</f>
@@ -5228,7 +5260,7 @@
     </row>
     <row r="22" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4">
         <v>150</v>
@@ -5240,16 +5272,16 @@
         <v>1800</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G22">
         <v>45</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>123</v>
+        <v>425</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J22" s="12" t="s">
         <v>104</v>
@@ -5261,7 +5293,7 @@
     </row>
     <row r="23" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C23" s="4">
         <v>340</v>
@@ -5273,16 +5305,16 @@
         <v>1850</v>
       </c>
       <c r="F23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G23">
         <v>45</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K23" s="17">
         <f>('[1]일선 모험가'!$C$54+C23)*(1+('[1]일선 모험가'!$D$54+D23)/100)/[1]모험가!$N$54</f>
@@ -5291,7 +5323,7 @@
     </row>
     <row r="24" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C24" s="4">
         <v>295</v>
@@ -5303,13 +5335,13 @@
         <v>2000</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G24">
         <v>50</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>85</v>
@@ -5321,7 +5353,7 @@
     </row>
     <row r="25" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4">
         <v>75</v>
@@ -5333,16 +5365,16 @@
         <v>2050</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G25">
         <v>50</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="K25" s="17">
         <f>('[1]일선 모험가'!$C$59+C25)*(1+('[1]일선 모험가'!$D$59+D25)/100)/[1]모험가!$N$59</f>
@@ -5351,7 +5383,7 @@
     </row>
     <row r="26" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4">
         <v>325</v>
@@ -5363,19 +5395,19 @@
         <v>2200</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G26">
         <v>55</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>113</v>
+        <v>420</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K26" s="17">
         <f>('[1]일선 모험가'!$C$64+C26)*(1+('[1]일선 모험가'!$D$64+D26)/100)/[1]모험가!$N$64</f>
@@ -5384,7 +5416,7 @@
     </row>
     <row r="27" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4">
         <v>175</v>
@@ -5396,16 +5428,16 @@
         <v>2222</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G27">
         <v>55</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>104</v>
@@ -5417,7 +5449,7 @@
     </row>
     <row r="28" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4">
         <v>300</v>
@@ -5429,19 +5461,19 @@
         <v>2500</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G28">
         <v>60</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K28" s="17">
         <f>('[1]일선 모험가'!$C$69+C28)*(1+('[1]일선 모험가'!$D$69+D28)/100)/[1]모험가!$N$69</f>
@@ -5450,7 +5482,7 @@
     </row>
     <row r="29" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4">
         <v>470</v>
@@ -5462,16 +5494,16 @@
         <v>2400</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G29">
         <v>60</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K29" s="17">
         <f>('[1]일선 모험가'!$C$69+C29)*(1+('[1]일선 모험가'!$D$69+D29)/100)/[1]모험가!$N$69</f>
@@ -5480,7 +5512,7 @@
     </row>
     <row r="30" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C30" s="4">
         <v>400</v>
@@ -5492,16 +5524,16 @@
         <v>2675</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G30">
         <v>65</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K30" s="17">
         <f>('[1]일선 모험가'!$C$74+C30)*(1+('[1]일선 모험가'!$D$74+D30)/100)/[1]모험가!$N$74</f>
@@ -5510,7 +5542,7 @@
     </row>
     <row r="31" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C31" s="4">
         <v>90</v>
@@ -5522,13 +5554,13 @@
         <v>2700</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G31">
         <v>65</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>86</v>
@@ -5540,7 +5572,7 @@
     </row>
     <row r="32" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4">
         <v>425</v>
@@ -5552,19 +5584,19 @@
         <v>2850</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G32">
         <v>70</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>160</v>
+        <v>426</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K32" s="17">
         <f>('[1]일선 모험가'!$C$79+C32)*(1+('[1]일선 모험가'!$D$79+D32)/100)/[1]모험가!$N$79</f>
@@ -5573,7 +5605,7 @@
     </row>
     <row r="33" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4">
         <v>275</v>
@@ -5585,16 +5617,16 @@
         <v>2900</v>
       </c>
       <c r="F33" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G33">
         <v>70</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="J33" s="12" t="s">
         <v>104</v>
@@ -5606,7 +5638,7 @@
     </row>
     <row r="34" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C34" s="4">
         <v>390</v>
@@ -5618,19 +5650,19 @@
         <v>2950</v>
       </c>
       <c r="F34" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G34">
         <v>75</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K34" s="17">
         <f>('[1]일선 모험가'!$C$84+C34)*(1+('[1]일선 모험가'!$D$84+D34)/100)/[1]모험가!$N$84</f>
@@ -5639,7 +5671,7 @@
     </row>
     <row r="35" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C35" s="4">
         <v>645</v>
@@ -5651,16 +5683,16 @@
         <v>2975</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G35">
         <v>75</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="K35" s="17">
         <f>('[1]일선 모험가'!$C$84+C35)*(1+('[1]일선 모험가'!$D$84+D35)/100)/[1]모험가!$N$84</f>
@@ -5669,7 +5701,7 @@
     </row>
     <row r="36" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C36" s="4">
         <v>500</v>
@@ -5681,16 +5713,16 @@
         <v>3000</v>
       </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G36">
         <v>80</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="K36" s="17">
         <f>('[1]일선 모험가'!$C$89+C36)*(1+('[1]일선 모험가'!$D$89+D36)/100)/[1]모험가!$N$89</f>
@@ -5699,7 +5731,7 @@
     </row>
     <row r="37" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C37" s="4">
         <v>110</v>
@@ -5711,16 +5743,16 @@
         <v>3000</v>
       </c>
       <c r="F37" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G37">
         <v>80</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K37" s="17">
         <f>('[1]일선 모험가'!$C$89+C37)*(1+('[1]일선 모험가'!$D$89+D37)/100)/[1]모험가!$N$89</f>
@@ -5729,7 +5761,7 @@
     </row>
     <row r="38" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C38" s="4">
         <v>560</v>
@@ -5741,19 +5773,19 @@
         <v>5000</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G38">
         <v>85</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>187</v>
+        <v>429</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K38" s="17">
         <f>('[1]일선 모험가'!$C$99+C38)*(1+('[1]일선 모험가'!$D$99+D38)/100)/[1]모험가!$N$99</f>
@@ -5762,7 +5794,7 @@
     </row>
     <row r="39" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C39" s="4">
         <v>350</v>
@@ -5774,19 +5806,19 @@
         <v>5000</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G39">
         <v>85</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>178</v>
+        <v>449</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="K39" s="17">
         <f>('[1]일선 모험가'!$C$99+C39)*(1+('[1]일선 모험가'!$D$99+D39)/100)/[1]모험가!$N$99</f>
@@ -5795,7 +5827,7 @@
     </row>
     <row r="40" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C40" s="4">
         <v>450</v>
@@ -5807,19 +5839,19 @@
         <v>5000</v>
       </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G40">
         <v>85</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>174</v>
+        <v>412</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K40" s="17">
         <f>('[1]일선 모험가'!$C$99+C40)*(1+('[1]일선 모험가'!$D$99+D40)/100)/[1]모험가!$N$99</f>
@@ -5828,7 +5860,7 @@
     </row>
     <row r="41" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4">
         <v>765</v>
@@ -5840,19 +5872,19 @@
         <v>5000</v>
       </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G41">
         <v>85</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>183</v>
+        <v>406</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K41" s="17">
         <f>('[1]일선 모험가'!$C$99+C41)*(1+('[1]일선 모험가'!$D$99+D41)/100)/[1]모험가!$N$99</f>
@@ -5861,7 +5893,7 @@
     </row>
     <row r="42" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C42" s="4">
         <v>550</v>
@@ -5873,19 +5905,19 @@
         <v>5000</v>
       </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G42">
         <v>85</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K42" s="17">
         <f>('[1]일선 모험가'!$C$99+C42)*(1+('[1]일선 모험가'!$D$99+D42)/100)/[1]모험가!$N$99</f>
@@ -5894,7 +5926,7 @@
     </row>
     <row r="43" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C43" s="4">
         <v>100</v>
@@ -5906,19 +5938,19 @@
         <v>5000</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G43">
         <v>85</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>180</v>
+        <v>418</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K43" s="17">
         <f>('[1]일선 모험가'!$C$99+C43)*(1+('[1]일선 모험가'!$D$99+D43)/100)/[1]모험가!$N$99</f>
@@ -5940,8 +5972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5976,7 +6008,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>11</v>
@@ -5989,10 +6021,10 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="32">
+      <c r="C5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="31">
         <v>650</v>
       </c>
       <c r="E5" t="s">
@@ -6001,10 +6033,10 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="30" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6013,7 +6045,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D6" s="1">
         <v>800</v>
@@ -6027,7 +6059,7 @@
       <c r="G6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="30" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6036,7 +6068,7 @@
         <v>35</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="D7" s="1">
         <v>1200</v>
@@ -6050,16 +6082,16 @@
       <c r="G7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="31" t="s">
-        <v>332</v>
+      <c r="H7" s="30" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>382</v>
+      <c r="C8" s="38" t="s">
+        <v>339</v>
       </c>
       <c r="D8" s="1">
         <v>1600</v>
@@ -6071,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>51</v>
@@ -6082,7 +6114,7 @@
         <v>43</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D9" s="1">
         <v>1800</v>
@@ -6094,20 +6126,20 @@
         <v>1</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="H9" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>367</v>
-      </c>
-      <c r="D10" s="32">
+        <v>288</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="31">
         <v>1500</v>
       </c>
       <c r="E10" t="s">
@@ -6116,10 +6148,10 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="G10" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="H10" s="30" t="s">
         <v>58</v>
       </c>
     </row>
@@ -6128,7 +6160,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="D11" s="1">
         <v>7000</v>
@@ -6140,9 +6172,9 @@
         <v>50</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="H11" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="H11" s="30" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6151,7 +6183,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="D12" s="1">
         <v>2500</v>
@@ -6163,7 +6195,7 @@
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>61</v>
@@ -6173,10 +6205,10 @@
       <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="C13" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="31">
         <v>2000</v>
       </c>
       <c r="E13" t="s">
@@ -6185,31 +6217,31 @@
       <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="G13" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="30" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>414</v>
+        <v>336</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>363</v>
       </c>
       <c r="D14" s="1">
         <v>4500</v>
       </c>
       <c r="E14" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>72</v>
@@ -6219,31 +6251,31 @@
       <c r="A15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>441</v>
+      <c r="C15" s="21" t="s">
+        <v>402</v>
       </c>
       <c r="D15" s="1">
         <v>3800</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>381</v>
+      <c r="C16" s="22" t="s">
+        <v>397</v>
       </c>
       <c r="D16" s="1">
         <v>6000</v>
@@ -6255,123 +6287,123 @@
         <v>50</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="H16" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="H16" s="30" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>363</v>
+        <v>163</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>411</v>
       </c>
       <c r="D17" s="1">
         <v>5000</v>
       </c>
       <c r="E17" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="F17">
         <v>30</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="36">
+      <c r="A18" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D18" s="35">
         <v>1400</v>
       </c>
-      <c r="E18" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="F18" s="35">
+      <c r="E18" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="34">
         <v>10</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>313</v>
+      <c r="G18" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>365</v>
+        <v>283</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="D19" s="1">
         <v>2500</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>366</v>
+        <v>286</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>409</v>
       </c>
       <c r="D20" s="1">
         <v>2600</v>
       </c>
       <c r="E20" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="F20">
         <v>40</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>375</v>
+        <v>289</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>436</v>
       </c>
       <c r="D21" s="1">
         <v>3000</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F21">
         <v>30</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>431</v>
+        <v>380</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>58</v>
@@ -6379,508 +6411,508 @@
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>368</v>
+        <v>290</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>437</v>
       </c>
       <c r="D22" s="1">
         <v>3000</v>
       </c>
       <c r="E22" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F22">
         <v>30</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>369</v>
+        <v>292</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>414</v>
       </c>
       <c r="D23" s="1">
         <v>1400</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>370</v>
+        <v>293</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>415</v>
       </c>
       <c r="D24" s="1">
         <v>2500</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="F24">
         <v>40</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>316</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>371</v>
+        <v>294</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>438</v>
       </c>
       <c r="D25" s="1">
         <v>5000</v>
       </c>
       <c r="E25" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="F25">
         <v>30</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>433</v>
+        <v>382</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>372</v>
+        <v>295</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="D26" s="1">
         <v>2100</v>
       </c>
       <c r="E26" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="F26">
         <v>30</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="D27" s="1">
         <v>2350</v>
       </c>
       <c r="E27" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="F27">
         <v>35</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>374</v>
+        <v>302</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>338</v>
       </c>
       <c r="D28" s="1">
         <v>3500</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="F28">
         <v>40</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>329</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>359</v>
+        <v>305</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>335</v>
       </c>
       <c r="D29" s="1">
         <v>2200</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="D30" s="1">
         <v>1000</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="D31" s="1">
         <v>2800</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F31">
         <v>30</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>378</v>
+        <v>440</v>
       </c>
       <c r="D32" s="1">
         <v>5500</v>
       </c>
       <c r="E32" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>355</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>379</v>
+        <v>331</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>450</v>
       </c>
       <c r="D33" s="1">
         <v>6000</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F33">
         <v>50</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D34" s="32">
+        <v>442</v>
+      </c>
+      <c r="D34" s="31">
         <v>1350</v>
       </c>
       <c r="E34" t="s">
-        <v>397</v>
+        <v>350</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D35" s="32">
+        <v>443</v>
+      </c>
+      <c r="D35" s="31">
         <v>2500</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="F35">
         <v>30</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="D36" s="32">
+        <v>444</v>
+      </c>
+      <c r="D36" s="31">
         <v>5000</v>
       </c>
       <c r="E36" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="F36">
         <v>50</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>416</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="D37" s="32">
+        <v>365</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="D37" s="31">
         <v>3400</v>
       </c>
       <c r="E37" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="D38" s="32">
+        <v>445</v>
+      </c>
+      <c r="D38" s="31">
         <v>1750</v>
       </c>
       <c r="E38" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="F38">
         <v>25</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D39" s="32">
+        <v>446</v>
+      </c>
+      <c r="D39" s="31">
         <v>3000</v>
       </c>
       <c r="E39" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="F39">
         <v>45</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H39" s="31" t="s">
-        <v>439</v>
+        <v>354</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="D40" s="32">
+        <v>447</v>
+      </c>
+      <c r="D40" s="31">
         <v>4600</v>
       </c>
       <c r="E40" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="F40">
         <v>60</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H40" s="31" t="s">
-        <v>439</v>
+        <v>383</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>408</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D41" s="32">
+        <v>357</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="D41" s="31">
         <v>1500</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F41">
         <v>10</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>409</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="D42" s="32">
+        <v>358</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D42" s="31">
         <v>2300</v>
       </c>
       <c r="E42" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D43" s="32">
+      <c r="A43" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="31">
         <v>3300</v>
       </c>
       <c r="E43" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="F43">
         <v>10</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>445</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4"/>
